--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,20 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC47559-B85B-46A7-BA30-9FB36D3BECE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8369C9D0-9B73-4278-A227-FC0947E2407D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BTMI010" sheetId="6" r:id="rId1"/>
-    <sheet name="BTMI016" sheetId="5" r:id="rId2"/>
+    <sheet name="FPA011" sheetId="7" r:id="rId1"/>
+    <sheet name="FPA012-013-015-017" sheetId="8" r:id="rId2"/>
+    <sheet name="FPA014-016-020" sheetId="9" r:id="rId3"/>
+    <sheet name="FPA018-019" sheetId="10" r:id="rId4"/>
+    <sheet name="BTMI010" sheetId="6" r:id="rId5"/>
+    <sheet name="BTMI016" sheetId="5" r:id="rId6"/>
+    <sheet name="Calculate" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="76">
   <si>
     <t>fileName</t>
   </si>
@@ -201,6 +206,54 @@
   </si>
   <si>
     <t>64,34</t>
+  </si>
+  <si>
+    <t>packagingAndShippingComments</t>
+  </si>
+  <si>
+    <t>deliveryOption</t>
+  </si>
+  <si>
+    <t>shippingOption</t>
+  </si>
+  <si>
+    <t>STANDARD</t>
+  </si>
+  <si>
+    <t>Standard shipping</t>
+  </si>
+  <si>
+    <t>ECONOMY</t>
+  </si>
+  <si>
+    <t>Pickup at factory</t>
+  </si>
+  <si>
+    <t>FAST</t>
+  </si>
+  <si>
+    <t>Special packaging / via freight forwarding</t>
+  </si>
+  <si>
+    <t>comments shipping</t>
+  </si>
+  <si>
+    <t>customerEmail</t>
+  </si>
+  <si>
+    <t>buyer@gocad.de</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Add Months</t>
+  </si>
+  <si>
+    <t>Date M added</t>
+  </si>
+  <si>
+    <t>deliveryDate</t>
   </si>
 </sst>
 </file>
@@ -264,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,6 +335,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,26 +625,1259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AAE34D-C5F5-4479-9641-59F1F5898040}">
-  <dimension ref="A1:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4639641D-1D4F-4B71-AC19-D76CD20CBA7F}">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" customWidth="1"/>
+    <col min="16" max="16" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBA0BF0-0221-405C-9926-91F4A4D5B9A2}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" customWidth="1"/>
+    <col min="16" max="16" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>60</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>300</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>60</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>60</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>60</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD295A4-7888-4573-887A-A63AAC48719B}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" customWidth="1"/>
+    <col min="16" max="16" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>60</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>60</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>60</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>60</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B69C7-A702-45C4-913D-71E1B6AF4D13}">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" customWidth="1"/>
+    <col min="17" max="17" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="4">
+        <f ca="1">Calculate!$C$2</f>
+        <v>45349</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="4">
+        <f ca="1">Calculate!$C$2</f>
+        <v>45349</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="4">
+        <f ca="1">Calculate!$C$2</f>
+        <v>45349</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="4">
+        <f ca="1">Calculate!$C$2</f>
+        <v>45349</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AAE34D-C5F5-4479-9641-59F1F5898040}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -588,40 +1889,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>16</v>
@@ -632,41 +1933,41 @@
         <v>37</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="5" t="s">
-        <v>26</v>
+      <c r="C2" s="3">
+        <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3">
         <v>3</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>30</v>
+      <c r="H2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3">
+        <v>4</v>
       </c>
       <c r="J2" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" s="3">
-        <v>5</v>
-      </c>
-      <c r="L2" s="3">
         <v>6</v>
       </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>32</v>
@@ -677,26 +1978,26 @@
         <v>38</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
-        <v>26</v>
+      <c r="C3" s="3">
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
+      <c r="E3" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>26</v>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
@@ -704,14 +2005,14 @@
       <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
-        <v>1</v>
+      <c r="L3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>42</v>
@@ -722,26 +2023,26 @@
         <v>46</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
-        <v>30</v>
+      <c r="C4" s="3">
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>30</v>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
@@ -749,14 +2050,14 @@
       <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="3">
-        <v>1</v>
+      <c r="L4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>50</v>
@@ -767,26 +2068,26 @@
         <v>53</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="5" t="s">
-        <v>30</v>
+      <c r="C5" s="3">
+        <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>26</v>
+      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
@@ -794,14 +2095,14 @@
       <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5" s="3">
-        <v>1</v>
+      <c r="L5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>56</v>
@@ -812,36 +2113,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08C9849-CB54-465E-AADF-08DB0E1F7827}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="33" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="30" customWidth="1"/>
+    <col min="16" max="16" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="30" customWidth="1"/>
+    <col min="24" max="24" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -853,70 +2154,70 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>9</v>
@@ -927,71 +2228,71 @@
         <v>37</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="5" t="s">
-        <v>26</v>
+      <c r="C2" s="3">
+        <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3">
         <v>3</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>30</v>
+      <c r="H2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3">
+        <v>4</v>
       </c>
       <c r="J2" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" s="3">
-        <v>5</v>
-      </c>
-      <c r="L2" s="3">
         <v>6</v>
       </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>30</v>
+      <c r="P2" s="3">
+        <v>4</v>
       </c>
       <c r="Q2" s="3">
-        <v>4</v>
-      </c>
-      <c r="R2" s="3">
         <v>8</v>
       </c>
+      <c r="R2" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="S2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>26</v>
+      <c r="T2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="3">
+        <v>6</v>
       </c>
       <c r="V2" s="3">
-        <v>6</v>
-      </c>
-      <c r="W2" s="3">
         <v>7</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>36</v>
@@ -1002,26 +2303,26 @@
         <v>38</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
-        <v>26</v>
+      <c r="C3" s="3">
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
+      <c r="E3" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>26</v>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
@@ -1029,44 +2330,44 @@
       <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
-        <v>1</v>
+      <c r="L3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>30</v>
+      <c r="P3" s="3">
+        <v>3</v>
       </c>
       <c r="Q3" s="3">
-        <v>3</v>
-      </c>
-      <c r="R3" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>30</v>
+      <c r="T3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="3">
+        <v>4</v>
       </c>
       <c r="V3" s="3">
-        <v>4</v>
-      </c>
-      <c r="W3" s="3">
         <v>5</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>45</v>
@@ -1077,26 +2378,26 @@
         <v>46</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
-        <v>30</v>
+      <c r="C4" s="3">
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>30</v>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
@@ -1104,44 +2405,44 @@
       <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="3">
-        <v>1</v>
+      <c r="L4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>26</v>
+      <c r="P4" s="3">
+        <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
         <v>2</v>
       </c>
+      <c r="R4" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="S4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="5" t="s">
-        <v>26</v>
+      <c r="T4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="3">
+        <v>5</v>
       </c>
       <c r="V4" s="3">
-        <v>5</v>
-      </c>
-      <c r="W4" s="3">
         <v>6</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>52</v>
@@ -1152,26 +2453,26 @@
         <v>53</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="5" t="s">
-        <v>30</v>
+      <c r="C5" s="3">
+        <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>26</v>
+      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
@@ -1179,47 +2480,91 @@
       <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5" s="3">
-        <v>1</v>
+      <c r="L5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>30</v>
+      <c r="P5" s="3">
+        <v>0</v>
       </c>
       <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="T5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="5" t="s">
-        <v>30</v>
+      <c r="T5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="3">
+        <v>5</v>
       </c>
       <c r="V5" s="3">
-        <v>5</v>
-      </c>
-      <c r="W5" s="3">
         <v>6</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>58</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF88DBB-4BDA-40FD-915E-847BDAADE748}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9">
+        <f ca="1">TODAY()</f>
+        <v>45196</v>
+      </c>
+      <c r="B2" s="8">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10">
+        <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
+        <v>45349</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8369C9D0-9B73-4278-A227-FC0947E2407D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92CDC39-F707-43C2-95B3-630BCB132147}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPA011" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="76">
   <si>
     <t>fileName</t>
   </si>
@@ -918,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBA0BF0-0221-405C-9926-91F4A4D5B9A2}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1223,11 +1223,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD295A4-7888-4573-887A-A63AAC48719B}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1313,7 +1311,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="3">
         <v>3</v>
@@ -1367,7 +1365,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1412,114 +1410,6 @@
         <v>60</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>60</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>60</v>
-      </c>
-      <c r="R5" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1661,7 +1551,7 @@
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>63</v>
@@ -1719,7 +1609,7 @@
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>65</v>
@@ -1777,7 +1667,7 @@
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>67</v>
@@ -1835,7 +1725,7 @@
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>63</v>
@@ -2557,14 +2447,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45349</v>
+        <v>45350</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92CDC39-F707-43C2-95B3-630BCB132147}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA0226D-6555-4E99-B1F4-4FB057711CB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPA011" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="78">
   <si>
     <t>fileName</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>deliveryDate</t>
+  </si>
+  <si>
+    <t>Deburring (one-sided)</t>
+  </si>
+  <si>
+    <t>No deburring</t>
   </si>
 </sst>
 </file>
@@ -629,7 +635,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -640,7 +646,8 @@
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
@@ -726,7 +733,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -777,7 +784,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -828,7 +835,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -879,7 +886,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -919,7 +926,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -931,7 +938,7 @@
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1009,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
@@ -1021,7 +1028,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1063,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>40</v>
@@ -1075,7 +1082,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1117,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>48</v>
@@ -1129,7 +1136,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1171,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>55</v>
@@ -1183,7 +1190,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1225,7 +1232,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD295A4-7888-4573-887A-A63AAC48719B}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1236,7 +1245,7 @@
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1326,7 +1335,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1380,7 +1389,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1422,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B69C7-A702-45C4-913D-71E1B6AF4D13}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1435,7 +1444,7 @@
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1529,7 +1538,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1551,7 +1560,7 @@
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45350</v>
+        <v>45368</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>63</v>
@@ -1587,7 +1596,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1609,7 +1618,7 @@
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45350</v>
+        <v>45368</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>65</v>
@@ -1645,7 +1654,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1667,7 +1676,7 @@
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45350</v>
+        <v>45368</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>67</v>
@@ -1703,7 +1712,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1725,7 +1734,7 @@
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45350</v>
+        <v>45368</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>63</v>
@@ -1749,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AAE34D-C5F5-4479-9641-59F1F5898040}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1761,7 +1770,8 @@
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
@@ -1839,7 +1849,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1884,7 +1894,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1929,7 +1939,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1974,7 +1984,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -2007,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08C9849-CB54-465E-AADF-08DB0E1F7827}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2134,7 +2144,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -2170,7 +2180,7 @@
         <v>34</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="U2" s="3">
         <v>6</v>
@@ -2209,7 +2219,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -2245,7 +2255,7 @@
         <v>28</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="U3" s="3">
         <v>4</v>
@@ -2284,7 +2294,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2320,7 +2330,7 @@
         <v>41</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="U4" s="3">
         <v>5</v>
@@ -2359,7 +2369,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -2395,7 +2405,7 @@
         <v>28</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="U5" s="3">
         <v>5</v>
@@ -2447,14 +2457,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45197</v>
+        <v>45216</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45350</v>
+        <v>45368</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28888C7A-235D-4092-93D1-1729EBAC0344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9537926-7778-4A1D-B07B-584CB2A07B36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="81">
   <si>
     <t>fileName</t>
   </si>
@@ -253,9 +253,6 @@
     <t>laserMarkingChanged</t>
   </si>
   <si>
-    <t>No Lasermarking</t>
-  </si>
-  <si>
     <t>One-sided</t>
   </si>
   <si>
@@ -266,6 +263,12 @@
   </si>
   <si>
     <t>partAccordingToTheDrawing</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
   </si>
 </sst>
 </file>
@@ -275,12 +278,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,11 +346,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -355,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -369,6 +379,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -654,7 +667,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="H16" sqref="H16:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -711,7 +724,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
@@ -750,13 +763,13 @@
         <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>76</v>
+      <c r="H2" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -804,13 +817,13 @@
         <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>72</v>
+      <c r="H3" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -858,13 +871,13 @@
         <v>43</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>77</v>
+      <c r="H4" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -912,13 +925,13 @@
         <v>50</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>78</v>
+      <c r="H5" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -961,7 +974,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1019,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
@@ -1060,14 +1073,14 @@
       <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>75</v>
+      <c r="F2" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>76</v>
+      <c r="H2" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1117,14 +1130,14 @@
       <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>75</v>
+      <c r="F3" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>72</v>
+      <c r="H3" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1174,14 +1187,14 @@
       <c r="E4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>75</v>
+      <c r="F4" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>77</v>
+      <c r="H4" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1231,14 +1244,14 @@
       <c r="E5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>75</v>
+      <c r="F5" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>78</v>
+      <c r="H5" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1285,7 +1298,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1343,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
@@ -1384,14 +1397,14 @@
       <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>75</v>
+      <c r="F2" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>76</v>
+      <c r="H2" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1399,7 +1412,7 @@
       <c r="J2" s="3">
         <v>5</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="3">
@@ -1441,14 +1454,14 @@
       <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>75</v>
+      <c r="F3" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>72</v>
+      <c r="H3" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1494,7 +1507,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1553,7 +1566,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
@@ -1597,14 +1610,14 @@
       <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>75</v>
+      <c r="F2" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>76</v>
+      <c r="H2" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1629,7 +1642,7 @@
       </c>
       <c r="P2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45376</v>
+        <v>45379</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>58</v>
@@ -1658,14 +1671,14 @@
       <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>75</v>
+      <c r="F3" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>72</v>
+      <c r="H3" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1690,7 +1703,7 @@
       </c>
       <c r="P3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45376</v>
+        <v>45379</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>60</v>
@@ -1719,14 +1732,14 @@
       <c r="E4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>75</v>
+      <c r="F4" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>77</v>
+      <c r="H4" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1751,7 +1764,7 @@
       </c>
       <c r="P4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45376</v>
+        <v>45379</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>62</v>
@@ -1780,14 +1793,14 @@
       <c r="E5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>75</v>
+      <c r="F5" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>78</v>
+      <c r="H5" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1812,7 +1825,7 @@
       </c>
       <c r="P5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45376</v>
+        <v>45379</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>58</v>
@@ -1836,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AAE34D-C5F5-4479-9641-59F1F5898040}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1892,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
@@ -1924,14 +1937,14 @@
       <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>75</v>
+      <c r="F2" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>76</v>
+      <c r="H2" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1972,14 +1985,14 @@
       <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>75</v>
+      <c r="F3" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>72</v>
+      <c r="H3" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -2020,14 +2033,14 @@
       <c r="E4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>75</v>
+      <c r="F4" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>77</v>
+      <c r="H4" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2068,14 +2081,14 @@
       <c r="E5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>75</v>
+      <c r="F5" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>78</v>
+      <c r="H5" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -2111,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08C9849-CB54-465E-AADF-08DB0E1F7827}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2135,7 +2148,7 @@
     <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="33" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="24" width="30" customWidth="1"/>
     <col min="25" max="25" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="22.85546875" bestFit="1" customWidth="1"/>
@@ -2173,7 +2186,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
@@ -2235,14 +2248,14 @@
       <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>75</v>
+      <c r="F2" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>76</v>
+      <c r="H2" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -2277,8 +2290,8 @@
       <c r="S2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="11" t="s">
-        <v>75</v>
+      <c r="T2" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>72</v>
@@ -2313,14 +2326,14 @@
       <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>75</v>
+      <c r="F3" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>72</v>
+      <c r="H3" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -2355,8 +2368,8 @@
       <c r="S3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="11" t="s">
-        <v>75</v>
+      <c r="T3" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>71</v>
@@ -2391,14 +2404,14 @@
       <c r="E4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>75</v>
+      <c r="F4" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>77</v>
+      <c r="H4" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2433,8 +2446,8 @@
       <c r="S4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="11" t="s">
-        <v>75</v>
+      <c r="T4" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>72</v>
@@ -2469,14 +2482,14 @@
       <c r="E5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>75</v>
+      <c r="F5" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>78</v>
+      <c r="H5" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -2511,8 +2524,8 @@
       <c r="S5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T5" s="11" t="s">
-        <v>75</v>
+      <c r="T5" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>71</v>
@@ -2567,14 +2580,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45224</v>
+        <v>45227</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45376</v>
+        <v>45379</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9537926-7778-4A1D-B07B-584CB2A07B36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B8737D-508D-4336-9341-FA8C695A06AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPA011" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="82">
   <si>
     <t>fileName</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>X2CrNiMo17</t>
   </si>
 </sst>
 </file>
@@ -666,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4639641D-1D4F-4B71-AC19-D76CD20CBA7F}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -787,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>24</v>
@@ -974,7 +977,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1068,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>25</v>
@@ -1098,7 +1101,7 @@
         <v>8</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>24</v>
@@ -1125,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>36</v>
@@ -1182,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>43</v>
@@ -1239,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>50</v>
@@ -1642,7 +1645,7 @@
       </c>
       <c r="P2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45379</v>
+        <v>45386</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>58</v>
@@ -1703,7 +1706,7 @@
       </c>
       <c r="P3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45379</v>
+        <v>45386</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>60</v>
@@ -1764,7 +1767,7 @@
       </c>
       <c r="P4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45379</v>
+        <v>45386</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>62</v>
@@ -1825,7 +1828,7 @@
       </c>
       <c r="P5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45379</v>
+        <v>45386</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>58</v>
@@ -2124,7 +2127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08C9849-CB54-465E-AADF-08DB0E1F7827}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -2580,14 +2583,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45379</v>
+        <v>45386</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B8737D-508D-4336-9341-FA8C695A06AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302A02CF-2072-4ADC-B8BC-859DF8A60E44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPA011" sheetId="7" r:id="rId1"/>
@@ -669,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4639641D-1D4F-4B71-AC19-D76CD20CBA7F}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBA0BF0-0221-405C-9926-91F4A4D5B9A2}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1071,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>25</v>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>36</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>43</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>50</v>
@@ -1509,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B69C7-A702-45C4-913D-71E1B6AF4D13}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="P2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45386</v>
+        <v>45389</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>58</v>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="P3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45386</v>
+        <v>45389</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>60</v>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="P4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45386</v>
+        <v>45389</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>62</v>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="P5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45386</v>
+        <v>45389</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>58</v>
@@ -2583,14 +2583,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45234</v>
+        <v>45237</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45386</v>
+        <v>45389</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302A02CF-2072-4ADC-B8BC-859DF8A60E44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257476C9-1E4B-45B1-89AC-05E179A0AA6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPA011" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="81">
   <si>
     <t>fileName</t>
   </si>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t>Two-sided</t>
-  </si>
-  <si>
-    <t>partAccordingToTheDrawing</t>
   </si>
   <si>
     <t>No</t>
@@ -667,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4639641D-1D4F-4B71-AC19-D76CD20CBA7F}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -685,17 +682,16 @@
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" customWidth="1"/>
-    <col min="17" max="17" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" customWidth="1"/>
+    <col min="16" max="16" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,31 +723,28 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -766,7 +759,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>26</v>
@@ -780,32 +773,29 @@
       <c r="J2" s="3">
         <v>5</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3">
-        <v>6</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>24</v>
+      <c r="O2" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -820,13 +810,13 @@
         <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -834,32 +824,29 @@
       <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>24</v>
+      <c r="O3" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -874,7 +861,7 @@
         <v>43</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>26</v>
@@ -888,32 +875,29 @@
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>27</v>
+      <c r="O4" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -928,7 +912,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>26</v>
@@ -942,28 +926,25 @@
       <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>27</v>
+      <c r="O5" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -974,10 +955,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBA0BF0-0221-405C-9926-91F4A4D5B9A2}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -992,18 +973,17 @@
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" customWidth="1"/>
-    <col min="17" max="17" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" customWidth="1"/>
+    <col min="16" max="16" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,34 +1015,31 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -1077,7 +1054,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>26</v>
@@ -1091,35 +1068,32 @@
       <c r="J2" s="3">
         <v>5</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3">
-        <v>6</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>24</v>
+      <c r="O2" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="3">
+      <c r="Q2" s="3">
         <v>60</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -1134,13 +1108,13 @@
         <v>36</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1148,35 +1122,32 @@
       <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>24</v>
+      <c r="O3" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="3">
         <v>60</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="3">
-        <v>60</v>
-      </c>
-      <c r="S3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -1191,7 +1162,7 @@
         <v>43</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>26</v>
@@ -1205,35 +1176,32 @@
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>27</v>
+      <c r="O4" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="3">
+      <c r="Q4" s="3">
         <v>60</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -1248,7 +1216,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>26</v>
@@ -1262,31 +1230,28 @@
       <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>27</v>
+      <c r="O5" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="3">
+      <c r="Q5" s="3">
         <v>60</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1298,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD295A4-7888-4573-887A-A63AAC48719B}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
@@ -1316,18 +1281,17 @@
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" customWidth="1"/>
-    <col min="17" max="17" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" customWidth="1"/>
+    <col min="16" max="16" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,34 +1323,31 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -1401,7 +1362,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>26</v>
@@ -1415,35 +1376,32 @@
       <c r="J2" s="3">
         <v>5</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="K2" s="3">
         <v>6</v>
       </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="O2" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="P2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="3">
+      <c r="Q2" s="3">
         <v>60</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -1458,13 +1416,13 @@
         <v>36</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1472,31 +1430,28 @@
       <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>24</v>
+      <c r="O3" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="3">
         <v>60</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="3">
-        <v>60</v>
-      </c>
-      <c r="S3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1507,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B69C7-A702-45C4-913D-71E1B6AF4D13}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1525,19 +1480,18 @@
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" customWidth="1"/>
-    <col min="18" max="18" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" customWidth="1"/>
+    <col min="17" max="17" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1569,37 +1523,34 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -1614,7 +1565,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>26</v>
@@ -1628,39 +1579,36 @@
       <c r="J2" s="3">
         <v>5</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3">
-        <v>6</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="4">
+      <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45389</v>
+        <v>45398</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -1675,13 +1623,13 @@
         <v>36</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1689,39 +1637,36 @@
       <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="4">
+      <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45389</v>
+        <v>45398</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -1736,7 +1681,7 @@
         <v>43</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>26</v>
@@ -1750,39 +1695,36 @@
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="4">
+      <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45389</v>
+        <v>45398</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -1797,7 +1739,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>26</v>
@@ -1811,35 +1753,32 @@
       <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="4">
+      <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45389</v>
+        <v>45398</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="S5" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1850,10 +1789,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AAE34D-C5F5-4479-9641-59F1F5898040}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1868,15 +1807,14 @@
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1908,25 +1846,22 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -1941,7 +1876,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>26</v>
@@ -1955,26 +1890,23 @@
       <c r="J2" s="3">
         <v>5</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3">
-        <v>6</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -1989,13 +1921,13 @@
         <v>36</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -2003,26 +1935,23 @@
       <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -2037,7 +1966,7 @@
         <v>43</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>26</v>
@@ -2051,26 +1980,23 @@
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -2085,7 +2011,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>26</v>
@@ -2099,22 +2025,19 @@
       <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2125,10 +2048,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08C9849-CB54-465E-AADF-08DB0E1F7827}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2142,22 +2065,21 @@
     <col min="7" max="8" width="16.85546875" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="33" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="30" customWidth="1"/>
-    <col min="25" max="25" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="30" customWidth="1"/>
+    <col min="24" max="24" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1">
+    <row r="1" spans="1:25" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2189,55 +2111,52 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -2252,7 +2171,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>26</v>
@@ -2266,56 +2185,53 @@
       <c r="J2" s="3">
         <v>5</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3">
+      <c r="O2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>8</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="3">
         <v>6</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>4</v>
-      </c>
-      <c r="R2" s="3">
-        <v>8</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="V2" s="3">
-        <v>6</v>
-      </c>
-      <c r="W2" s="3">
         <v>7</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:25">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -2330,13 +2246,13 @@
         <v>36</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -2344,56 +2260,53 @@
       <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="P3" s="3">
+        <v>3</v>
+      </c>
       <c r="Q3" s="3">
-        <v>3</v>
-      </c>
-      <c r="R3" s="3">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="U3" s="5" t="s">
+      <c r="S3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="U3" s="3">
+        <v>4</v>
+      </c>
       <c r="V3" s="3">
-        <v>4</v>
-      </c>
-      <c r="W3" s="3">
         <v>5</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:25">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -2408,7 +2321,7 @@
         <v>43</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>26</v>
@@ -2422,56 +2335,53 @@
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
       <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
         <v>2</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="U4" s="5" t="s">
+      <c r="S4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="U4" s="3">
+        <v>5</v>
+      </c>
       <c r="V4" s="3">
-        <v>5</v>
-      </c>
-      <c r="W4" s="3">
         <v>6</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:25">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -2486,7 +2396,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>26</v>
@@ -2500,52 +2410,49 @@
       <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="U5" s="3">
+        <v>5</v>
+      </c>
+      <c r="V5" s="3">
+        <v>6</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>1</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="V5" s="3">
-        <v>5</v>
-      </c>
-      <c r="W5" s="3">
-        <v>6</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2583,14 +2490,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45237</v>
+        <v>45246</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45389</v>
+        <v>45398</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257476C9-1E4B-45B1-89AC-05E179A0AA6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CC76F5-4FD3-4AAD-B690-5520FD180015}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPA011" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="83">
   <si>
     <t>fileName</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>X2CrNiMo17</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>CuSn8</t>
   </si>
 </sst>
 </file>
@@ -1265,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD295A4-7888-4573-887A-A63AAC48719B}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1353,7 +1359,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3">
         <v>3</v>
@@ -1380,10 +1386,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>24</v>
@@ -1407,7 +1413,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1593,7 +1599,7 @@
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>58</v>
@@ -1651,7 +1657,7 @@
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>60</v>
@@ -1709,7 +1715,7 @@
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>62</v>
@@ -1767,7 +1773,7 @@
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>58</v>
@@ -2050,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08C9849-CB54-465E-AADF-08DB0E1F7827}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2189,10 +2195,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>24</v>
@@ -2490,14 +2496,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45398</v>
+        <v>45399</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20404"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CC76F5-4FD3-4AAD-B690-5520FD180015}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A6C5BB-2412-492C-B965-875B64E68B1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPA011" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="85">
   <si>
     <t>fileName</t>
   </si>
@@ -52,9 +52,6 @@
     <t>materialName</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>unitPriceChanged</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>Soft annealing</t>
   </si>
   <si>
-    <t>16MNCr5</t>
-  </si>
-  <si>
     <t>29,52</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>stp-testing.stp</t>
   </si>
   <si>
-    <t>X5CrNiMo17-12-2</t>
-  </si>
-  <si>
     <t>Galvanizing</t>
   </si>
   <si>
@@ -166,18 +157,12 @@
     <t>145,75</t>
   </si>
   <si>
-    <t>42CrMo4</t>
-  </si>
-  <si>
     <t>313,50</t>
   </si>
   <si>
     <t>step-testing.step</t>
   </si>
   <si>
-    <t>X6CrNiMoTi17</t>
-  </si>
-  <si>
     <t>Powder coating</t>
   </si>
   <si>
@@ -275,6 +260,27 @@
   </si>
   <si>
     <t>CuSn8</t>
+  </si>
+  <si>
+    <t>Stainless steel</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>X5CrNi18</t>
+  </si>
+  <si>
+    <t>EPDM 65 Premium</t>
+  </si>
+  <si>
+    <t>Rubber</t>
+  </si>
+  <si>
+    <t>EN AW-6060 / AlMgSi</t>
+  </si>
+  <si>
+    <t>materialGroupChanged</t>
   </si>
 </sst>
 </file>
@@ -672,9 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4639641D-1D4F-4B71-AC19-D76CD20CBA7F}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -705,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -714,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -738,21 +742,21 @@
         <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -762,16 +766,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -783,129 +787,129 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I3" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K3" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>6</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="M4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -915,43 +919,43 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3">
+        <v>6</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="O5" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -964,7 +968,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -980,7 +984,7 @@
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.140625" customWidth="1"/>
@@ -997,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1006,16 +1010,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -1030,24 +1034,24 @@
         <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1057,16 +1061,16 @@
         <v>50</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1078,30 +1082,30 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1111,16 +1115,16 @@
         <v>50</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1132,30 +1136,30 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1165,51 +1169,51 @@
         <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="M4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="3">
         <v>60</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1219,46 +1223,46 @@
         <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="O5" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="3">
         <v>60</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1271,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD295A4-7888-4573-887A-A63AAC48719B}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1305,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1314,16 +1318,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -1338,24 +1342,24 @@
         <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1365,16 +1369,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1386,30 +1390,30 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1419,46 +1423,46 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I3" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K3" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1470,9 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B69C7-A702-45C4-913D-71E1B6AF4D13}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1488,7 +1490,7 @@
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" customWidth="1"/>
     <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.140625" customWidth="1"/>
@@ -1505,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1514,16 +1516,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -1538,27 +1540,27 @@
         <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1568,16 +1570,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1589,34 +1591,34 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45399</v>
+        <v>45425</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="S2" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1626,55 +1628,55 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45399</v>
+        <v>45425</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1684,55 +1686,55 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45399</v>
+        <v>45425</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1742,50 +1744,50 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="M5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45399</v>
+        <v>45425</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="S5" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +1800,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1828,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1837,16 +1839,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -1861,15 +1863,15 @@
         <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1879,16 +1881,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1900,21 +1902,21 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1924,16 +1926,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1945,21 +1947,21 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1969,42 +1971,42 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="M4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -2014,37 +2016,37 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="O5" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2054,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08C9849-CB54-465E-AADF-08DB0E1F7827}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2080,12 +2082,15 @@
     <col min="17" max="17" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="33" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="30" customWidth="1"/>
-    <col min="24" max="24" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="30" customWidth="1"/>
+    <col min="22" max="22" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1">
+    <row r="1" spans="1:26" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2102,16 +2107,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -2126,45 +2131,48 @@
         <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -2174,16 +2182,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -2195,16 +2203,16 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P2" s="3">
         <v>4</v>
@@ -2213,13 +2221,13 @@
         <v>8</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="U2" s="3">
         <v>6</v>
@@ -2228,18 +2236,21 @@
         <v>7</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -2249,16 +2260,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -2270,16 +2281,16 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="P3" s="3">
         <v>3</v>
@@ -2288,13 +2299,13 @@
         <v>1</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U3" s="3">
         <v>4</v>
@@ -2303,18 +2314,21 @@
         <v>5</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -2324,37 +2338,37 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="M4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -2363,13 +2377,13 @@
         <v>2</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="U4" s="3">
         <v>5</v>
@@ -2378,18 +2392,21 @@
         <v>6</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+        <v>79</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -2399,37 +2416,37 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="O5" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>
@@ -2438,13 +2455,13 @@
         <v>1</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U5" s="3">
         <v>5</v>
@@ -2453,13 +2470,16 @@
         <v>6</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2484,26 +2504,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45247</v>
+        <v>45273</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45399</v>
+        <v>45425</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A6C5BB-2412-492C-B965-875B64E68B1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813EEACB-4E5F-45D2-BD5D-CBF713DD64E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="86">
   <si>
     <t>fileName</t>
   </si>
@@ -148,9 +148,6 @@
     <t>stp-testing.stp</t>
   </si>
   <si>
-    <t>Galvanizing</t>
-  </si>
-  <si>
     <t>Nitrocarburizing</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>step-testing.step</t>
   </si>
   <si>
-    <t>Powder coating</t>
-  </si>
-  <si>
     <t>49,65</t>
   </si>
   <si>
@@ -281,6 +275,15 @@
   </si>
   <si>
     <t>materialGroupChanged</t>
+  </si>
+  <si>
+    <t>101,80</t>
+  </si>
+  <si>
+    <t>31,79</t>
+  </si>
+  <si>
+    <t>Sandblasting</t>
   </si>
 </sst>
 </file>
@@ -290,12 +293,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,11 +368,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -377,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -392,10 +402,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -678,7 +691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4639641D-1D4F-4B71-AC19-D76CD20CBA7F}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -718,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -745,13 +760,13 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -769,13 +784,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -787,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -820,13 +835,13 @@
         <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" s="3">
         <v>4</v>
@@ -838,7 +853,7 @@
         <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>33</v>
@@ -847,13 +862,13 @@
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -868,16 +883,16 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>71</v>
+      <c r="H4" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="I4" s="3">
         <v>4</v>
@@ -889,27 +904,27 @@
         <v>6</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -919,16 +934,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -940,22 +955,22 @@
         <v>6</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -968,7 +983,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1010,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1037,16 +1052,16 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1064,13 +1079,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1082,25 +1097,25 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1118,13 +1133,13 @@
         <v>34</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1136,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>33</v>
@@ -1145,16 +1160,16 @@
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1169,16 +1184,16 @@
         <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>71</v>
+      <c r="H4" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1190,30 +1205,30 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="3">
         <v>60</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1223,16 +1238,16 @@
         <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1244,25 +1259,25 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="3">
         <v>60</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1276,7 +1291,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1318,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1345,16 +1360,16 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1372,13 +1387,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1390,25 +1405,25 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1426,13 +1441,13 @@
         <v>34</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" s="3">
         <v>4</v>
@@ -1444,25 +1459,25 @@
         <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +1489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B69C7-A702-45C4-913D-71E1B6AF4D13}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1516,7 +1533,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1543,19 +1560,19 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1573,13 +1590,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1591,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>27</v>
@@ -1601,19 +1618,19 @@
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1631,13 +1648,13 @@
         <v>34</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1649,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>33</v>
@@ -1659,19 +1676,19 @@
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1686,16 +1703,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>71</v>
+      <c r="H4" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1707,34 +1724,34 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1744,16 +1761,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1765,29 +1782,29 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1817,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1839,7 +1856,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1884,13 +1901,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1902,10 +1919,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -1929,13 +1946,13 @@
         <v>34</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1947,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>33</v>
@@ -1971,16 +1988,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>71</v>
+      <c r="H4" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1992,21 +2009,21 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -2016,16 +2033,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -2037,16 +2054,16 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2059,7 +2076,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2107,7 +2124,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -2146,7 +2163,7 @@
         <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -2158,7 +2175,7 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
@@ -2185,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -2203,16 +2220,16 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="P2" s="3">
         <v>4</v>
@@ -2224,10 +2241,10 @@
         <v>29</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U2" s="3">
         <v>6</v>
@@ -2236,7 +2253,7 @@
         <v>7</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>33</v>
@@ -2263,13 +2280,13 @@
         <v>34</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -2281,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>33</v>
@@ -2290,7 +2307,7 @@
         <v>23</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="P3" s="3">
         <v>3</v>
@@ -2302,10 +2319,10 @@
         <v>37</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="U3" s="3">
         <v>4</v>
@@ -2314,7 +2331,7 @@
         <v>5</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>36</v>
@@ -2338,16 +2355,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>71</v>
+      <c r="H4" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2359,16 +2376,16 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -2377,13 +2394,13 @@
         <v>2</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U4" s="3">
         <v>5</v>
@@ -2392,21 +2409,21 @@
         <v>6</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -2416,16 +2433,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -2437,16 +2454,16 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>
@@ -2455,13 +2472,13 @@
         <v>1</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="U5" s="3">
         <v>5</v>
@@ -2470,16 +2487,16 @@
         <v>6</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2504,26 +2521,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45425</v>
+        <v>45426</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813EEACB-4E5F-45D2-BD5D-CBF713DD64E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D11AB3F-7724-4B3E-AB6A-0C8EC87B945C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="87">
   <si>
     <t>fileName</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>Sandblasting</t>
+  </si>
+  <si>
+    <t>AlMg3-Blech</t>
   </si>
 </sst>
 </file>
@@ -691,9 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4639641D-1D4F-4B71-AC19-D76CD20CBA7F}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -856,7 +857,7 @@
         <v>77</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -983,7 +984,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1154,7 +1155,7 @@
         <v>77</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -1490,7 +1491,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1618,7 +1619,7 @@
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45426</v>
+        <v>45427</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>51</v>
@@ -1669,14 +1670,14 @@
         <v>77</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45426</v>
+        <v>45427</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>53</v>
@@ -1734,7 +1735,7 @@
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45426</v>
+        <v>45427</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>55</v>
@@ -1792,7 +1793,7 @@
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45426</v>
+        <v>45427</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>51</v>
@@ -1817,7 +1818,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1967,7 +1968,7 @@
         <v>77</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -2076,7 +2077,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2301,7 +2302,7 @@
         <v>77</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -2533,14 +2534,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45274</v>
+        <v>45275</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45426</v>
+        <v>45427</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D11AB3F-7724-4B3E-AB6A-0C8EC87B945C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67E6691-BBEA-42E4-8D03-0905CDA5D388}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPA011" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="89">
   <si>
     <t>fileName</t>
   </si>
@@ -277,9 +277,6 @@
     <t>materialGroupChanged</t>
   </si>
   <si>
-    <t>101,80</t>
-  </si>
-  <si>
     <t>31,79</t>
   </si>
   <si>
@@ -287,6 +284,15 @@
   </si>
   <si>
     <t>AlMg3-Blech</t>
+  </si>
+  <si>
+    <t>100,08</t>
+  </si>
+  <si>
+    <t>164,55</t>
+  </si>
+  <si>
+    <t>49,20</t>
   </si>
 </sst>
 </file>
@@ -694,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4639641D-1D4F-4B71-AC19-D76CD20CBA7F}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -857,7 +863,7 @@
         <v>77</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -935,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>71</v>
@@ -1155,7 +1161,7 @@
         <v>77</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -1239,7 +1245,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>71</v>
@@ -1670,7 +1676,7 @@
         <v>77</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -1762,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>72</v>
@@ -1968,7 +1974,7 @@
         <v>77</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -2034,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>71</v>
@@ -2076,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08C9849-CB54-465E-AADF-08DB0E1F7827}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2230,7 +2236,7 @@
         <v>23</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P2" s="3">
         <v>4</v>
@@ -2302,13 +2308,13 @@
         <v>77</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P3" s="3">
         <v>3</v>
@@ -2386,7 +2392,7 @@
         <v>26</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -2434,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>71</v>
@@ -2464,7 +2470,7 @@
         <v>26</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67E6691-BBEA-42E4-8D03-0905CDA5D388}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB7EF31-DB6D-4973-86AE-8E88232EBCF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="84">
   <si>
     <t>fileName</t>
   </si>
@@ -109,9 +109,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>X14CrMoS17</t>
-  </si>
-  <si>
     <t>45,62</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>Phosphating</t>
   </si>
   <si>
-    <t>X90CrMoV18</t>
-  </si>
-  <si>
     <t>64,34</t>
   </si>
   <si>
@@ -220,12 +214,6 @@
     <t>deliveryDate</t>
   </si>
   <si>
-    <t>Deburring (one-sided)</t>
-  </si>
-  <si>
-    <t>No deburring</t>
-  </si>
-  <si>
     <t>laserMarking</t>
   </si>
   <si>
@@ -244,9 +232,6 @@
     <t>No</t>
   </si>
   <si>
-    <t xml:space="preserve">No </t>
-  </si>
-  <si>
     <t>X2CrNiMo17</t>
   </si>
   <si>
@@ -277,9 +262,6 @@
     <t>materialGroupChanged</t>
   </si>
   <si>
-    <t>31,79</t>
-  </si>
-  <si>
     <t>Sandblasting</t>
   </si>
   <si>
@@ -293,6 +275,9 @@
   </si>
   <si>
     <t>49,20</t>
+  </si>
+  <si>
+    <t>31,49</t>
   </si>
 </sst>
 </file>
@@ -700,7 +685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4639641D-1D4F-4B71-AC19-D76CD20CBA7F}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -740,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -767,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -809,27 +796,27 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -839,16 +826,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I3" s="3">
         <v>4</v>
@@ -860,46 +847,46 @@
         <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I4" s="3">
         <v>4</v>
@@ -911,27 +898,27 @@
         <v>6</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -941,16 +928,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -962,22 +949,22 @@
         <v>6</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +977,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="M3" sqref="M3:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1032,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1059,21 +1046,21 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1086,13 +1073,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1104,49 +1091,49 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1158,30 +1145,30 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1191,16 +1178,16 @@
         <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1212,30 +1199,30 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="3">
         <v>60</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1245,16 +1232,16 @@
         <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1266,25 +1253,25 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="3">
         <v>60</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1285,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1340,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1367,21 +1354,21 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1394,13 +1381,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1412,30 +1399,30 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1445,16 +1432,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I3" s="3">
         <v>4</v>
@@ -1466,25 +1453,25 @@
         <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1496,9 +1483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B69C7-A702-45C4-913D-71E1B6AF4D13}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1507,7 +1492,7 @@
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -1540,7 +1525,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1567,24 +1552,24 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1597,13 +1582,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1615,34 +1600,34 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45427</v>
+        <v>45428</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1652,16 +1637,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1673,34 +1658,34 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45427</v>
+        <v>45428</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1710,16 +1695,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1731,34 +1716,34 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45427</v>
+        <v>45428</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1768,16 +1753,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1789,29 +1774,29 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45427</v>
+        <v>45428</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1863,7 +1848,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1895,7 +1880,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1908,13 +1893,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1926,21 +1911,21 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1950,16 +1935,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1971,21 +1956,21 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1995,16 +1980,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2016,21 +2001,21 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -2040,16 +2025,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -2061,16 +2046,16 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2082,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08C9849-CB54-465E-AADF-08DB0E1F7827}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2131,7 +2116,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -2170,7 +2155,7 @@
         <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -2182,7 +2167,7 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
@@ -2196,7 +2181,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -2208,14 +2193,14 @@
       <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>71</v>
+      <c r="F2" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>69</v>
+      <c r="H2" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -2227,16 +2212,16 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>86</v>
+      <c r="O2" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="P2" s="3">
         <v>4</v>
@@ -2245,12 +2230,12 @@
         <v>8</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>65</v>
       </c>
       <c r="U2" s="3">
@@ -2260,21 +2245,21 @@
         <v>7</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -2284,16 +2269,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>71</v>
+        <v>33</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>71</v>
+      <c r="H3" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -2305,15 +2290,15 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>83</v>
       </c>
       <c r="P3" s="3">
@@ -2323,13 +2308,13 @@
         <v>1</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="U3" s="3">
         <v>4</v>
@@ -2338,21 +2323,21 @@
         <v>5</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -2362,16 +2347,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>71</v>
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>68</v>
+      <c r="H4" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2383,16 +2368,16 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>87</v>
+      <c r="O4" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -2401,13 +2386,13 @@
         <v>2</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>65</v>
+        <v>39</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="U4" s="3">
         <v>5</v>
@@ -2416,21 +2401,21 @@
         <v>6</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -2440,16 +2425,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>71</v>
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>70</v>
+      <c r="H5" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -2461,16 +2446,16 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>88</v>
+      <c r="O5" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>
@@ -2479,13 +2464,13 @@
         <v>1</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="U5" s="3">
         <v>5</v>
@@ -2494,16 +2479,16 @@
         <v>6</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2528,26 +2513,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45275</v>
+        <v>45276</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45427</v>
+        <v>45428</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20405"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB7EF31-DB6D-4973-86AE-8E88232EBCF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55659630-A7AC-47E9-8573-0CB6DECB7968}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="82">
   <si>
     <t>fileName</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Soft annealing</t>
   </si>
   <si>
-    <t>29,52</t>
-  </si>
-  <si>
     <t>dxf-testing.dxf</t>
   </si>
   <si>
@@ -133,27 +130,15 @@
     <t>44,61</t>
   </si>
   <si>
-    <t>X153CrMoV12</t>
-  </si>
-  <si>
     <t>Plasma nitriding</t>
   </si>
   <si>
-    <t>57,49</t>
-  </si>
-  <si>
     <t>stp-testing.stp</t>
   </si>
   <si>
-    <t>Nitrocarburizing</t>
-  </si>
-  <si>
     <t>145,75</t>
   </si>
   <si>
-    <t>313,50</t>
-  </si>
-  <si>
     <t>step-testing.step</t>
   </si>
   <si>
@@ -163,9 +148,6 @@
     <t>Phosphating</t>
   </si>
   <si>
-    <t>64,34</t>
-  </si>
-  <si>
     <t>packagingAndShippingComments</t>
   </si>
   <si>
@@ -277,7 +259,19 @@
     <t>49,20</t>
   </si>
   <si>
-    <t>31,49</t>
+    <t>60,47</t>
+  </si>
+  <si>
+    <t>31,91</t>
+  </si>
+  <si>
+    <t>35,56</t>
+  </si>
+  <si>
+    <t>179,49</t>
+  </si>
+  <si>
+    <t>46,70</t>
   </si>
 </sst>
 </file>
@@ -686,7 +680,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -727,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -754,18 +748,18 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -778,13 +772,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -796,27 +790,27 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -826,16 +820,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I3" s="3">
         <v>4</v>
@@ -847,27 +841,27 @@
         <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -880,13 +874,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I4" s="3">
         <v>4</v>
@@ -898,27 +892,27 @@
         <v>6</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -928,16 +922,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -949,26 +943,27 @@
         <v>6</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -977,7 +972,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1019,7 +1014,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1046,21 +1041,21 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1073,13 +1068,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1091,30 +1086,30 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1124,16 +1119,16 @@
         <v>500</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1145,30 +1140,30 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1181,13 +1176,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1199,30 +1194,30 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="3">
         <v>60</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1232,46 +1227,46 @@
         <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="3">
         <v>60</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1327,7 +1322,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1354,21 +1349,21 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1381,13 +1376,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1399,30 +1394,30 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1432,16 +1427,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I3" s="3">
         <v>4</v>
@@ -1453,25 +1448,25 @@
         <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1525,7 +1520,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1552,24 +1547,24 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1582,13 +1577,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1600,34 +1595,34 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45428</v>
+        <v>45429</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="S2" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1637,16 +1632,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1658,34 +1653,34 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45428</v>
+        <v>45429</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1698,13 +1693,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1716,34 +1711,34 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45428</v>
+        <v>45429</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1753,50 +1748,50 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45428</v>
+        <v>45429</v>
       </c>
       <c r="P5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="S5" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1848,7 +1843,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1880,7 +1875,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1893,13 +1888,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1911,10 +1906,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -1925,7 +1920,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1935,16 +1930,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1956,21 +1951,21 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1983,13 +1978,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2001,21 +1996,21 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -2025,37 +2020,37 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2063,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2116,7 +2111,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -2155,7 +2150,7 @@
         <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -2167,7 +2162,7 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
@@ -2181,7 +2176,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -2194,13 +2189,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -2212,16 +2207,16 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P2" s="3">
         <v>4</v>
@@ -2230,13 +2225,13 @@
         <v>8</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="U2" s="3">
         <v>6</v>
@@ -2245,21 +2240,21 @@
         <v>7</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -2269,16 +2264,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -2290,16 +2285,16 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P3" s="3">
         <v>3</v>
@@ -2308,13 +2303,13 @@
         <v>1</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="U3" s="3">
         <v>4</v>
@@ -2323,21 +2318,21 @@
         <v>5</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -2350,13 +2345,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2368,16 +2363,16 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -2386,13 +2381,13 @@
         <v>2</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="U4" s="3">
         <v>5</v>
@@ -2401,21 +2396,21 @@
         <v>6</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -2425,37 +2420,37 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>
@@ -2464,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="U5" s="3">
         <v>5</v>
@@ -2479,16 +2474,16 @@
         <v>6</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2513,26 +2508,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45276</v>
+        <v>45277</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45428</v>
+        <v>45429</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55659630-A7AC-47E9-8573-0CB6DECB7968}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1D3C04-54A5-43F7-B742-2A9E23700A64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,9 +253,6 @@
     <t>100,08</t>
   </si>
   <si>
-    <t>164,55</t>
-  </si>
-  <si>
     <t>49,20</t>
   </si>
   <si>
@@ -268,10 +265,13 @@
     <t>35,56</t>
   </si>
   <si>
-    <t>179,49</t>
-  </si>
-  <si>
     <t>46,70</t>
+  </si>
+  <si>
+    <t>156,32</t>
+  </si>
+  <si>
+    <t>175,55</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45429</v>
+        <v>45432</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>43</v>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45429</v>
+        <v>45432</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>45</v>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45429</v>
+        <v>45432</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>47</v>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45429</v>
+        <v>45432</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>43</v>
@@ -2062,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08C9849-CB54-465E-AADF-08DB0E1F7827}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2249,7 +2249,7 @@
         <v>26</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -2294,7 +2294,7 @@
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P3" s="3">
         <v>3</v>
@@ -2327,7 +2327,7 @@
         <v>26</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -2372,7 +2372,7 @@
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>23</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -2450,7 +2450,7 @@
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>
@@ -2483,7 +2483,7 @@
         <v>26</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2520,14 +2520,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45277</v>
+        <v>45280</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45429</v>
+        <v>45432</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1D3C04-54A5-43F7-B742-2A9E23700A64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF354CD0-DA5F-40C8-8D24-7A310D67F1AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,28 +250,28 @@
     <t>AlMg3-Blech</t>
   </si>
   <si>
-    <t>100,08</t>
-  </si>
-  <si>
-    <t>49,20</t>
-  </si>
-  <si>
     <t>60,47</t>
   </si>
   <si>
-    <t>31,91</t>
-  </si>
-  <si>
     <t>35,56</t>
   </si>
   <si>
     <t>46,70</t>
   </si>
   <si>
-    <t>156,32</t>
-  </si>
-  <si>
     <t>175,55</t>
+  </si>
+  <si>
+    <t>115,80</t>
+  </si>
+  <si>
+    <t>33,18</t>
+  </si>
+  <si>
+    <t>227,58</t>
+  </si>
+  <si>
+    <t>110,46</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45432</v>
+        <v>45435</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>43</v>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45432</v>
+        <v>45435</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>45</v>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45432</v>
+        <v>45435</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>47</v>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45432</v>
+        <v>45435</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>43</v>
@@ -2062,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08C9849-CB54-465E-AADF-08DB0E1F7827}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2216,7 +2216,7 @@
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P2" s="3">
         <v>4</v>
@@ -2249,7 +2249,7 @@
         <v>26</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -2294,7 +2294,7 @@
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P3" s="3">
         <v>3</v>
@@ -2327,7 +2327,7 @@
         <v>26</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -2405,7 +2405,7 @@
         <v>23</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -2450,7 +2450,7 @@
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>
@@ -2483,7 +2483,7 @@
         <v>26</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2520,14 +2520,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45280</v>
+        <v>45283</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45432</v>
+        <v>45435</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF354CD0-DA5F-40C8-8D24-7A310D67F1AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC8E57E-AE8D-4A61-9E19-27EF0E1E1D76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,18 +250,6 @@
     <t>AlMg3-Blech</t>
   </si>
   <si>
-    <t>60,47</t>
-  </si>
-  <si>
-    <t>35,56</t>
-  </si>
-  <si>
-    <t>46,70</t>
-  </si>
-  <si>
-    <t>175,55</t>
-  </si>
-  <si>
     <t>115,80</t>
   </si>
   <si>
@@ -272,6 +260,18 @@
   </si>
   <si>
     <t>110,46</t>
+  </si>
+  <si>
+    <t>56,85</t>
+  </si>
+  <si>
+    <t>50,49</t>
+  </si>
+  <si>
+    <t>221,76</t>
+  </si>
+  <si>
+    <t>87,56</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45435</v>
+        <v>45437</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>43</v>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45435</v>
+        <v>45437</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>45</v>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45435</v>
+        <v>45437</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>47</v>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45435</v>
+        <v>45437</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>43</v>
@@ -2062,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08C9849-CB54-465E-AADF-08DB0E1F7827}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2082,11 +2082,12 @@
     <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" customWidth="1"/>
     <col min="17" max="17" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.5703125" customWidth="1"/>
     <col min="19" max="19" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="30" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30" customWidth="1"/>
     <col min="22" max="22" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="28.140625" bestFit="1" customWidth="1"/>
@@ -2216,7 +2217,7 @@
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P2" s="3">
         <v>4</v>
@@ -2249,7 +2250,7 @@
         <v>26</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -2294,7 +2295,7 @@
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P3" s="3">
         <v>3</v>
@@ -2327,7 +2328,7 @@
         <v>26</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -2372,7 +2373,7 @@
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -2405,7 +2406,7 @@
         <v>23</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -2450,7 +2451,7 @@
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>
@@ -2483,7 +2484,7 @@
         <v>26</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2520,14 +2521,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45283</v>
+        <v>45285</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45435</v>
+        <v>45437</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC8E57E-AE8D-4A61-9E19-27EF0E1E1D76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9398EFF-41E8-4F77-BCAA-FDE81BD74F66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPA011" sheetId="7" r:id="rId1"/>
@@ -181,9 +181,6 @@
     <t>customerEmail</t>
   </si>
   <si>
-    <t>buyer@gocad.de</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -272,6 +269,9 @@
   </si>
   <si>
     <t>87,56</t>
+  </si>
+  <si>
+    <t>thuyautomation0@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -772,13 +772,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -790,10 +790,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -823,13 +823,13 @@
         <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="3">
         <v>4</v>
@@ -841,10 +841,10 @@
         <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -874,13 +874,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="3">
         <v>4</v>
@@ -892,10 +892,10 @@
         <v>6</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
@@ -922,16 +922,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -943,10 +943,10 @@
         <v>6</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
@@ -1014,7 +1014,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1068,13 +1068,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1086,10 +1086,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -1122,13 +1122,13 @@
         <v>32</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1140,10 +1140,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -1176,13 +1176,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1194,10 +1194,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
@@ -1227,16 +1227,16 @@
         <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1248,10 +1248,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
@@ -1322,7 +1322,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1376,13 +1376,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1394,10 +1394,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -1430,13 +1430,13 @@
         <v>32</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="3">
         <v>4</v>
@@ -1448,10 +1448,10 @@
         <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -1478,7 +1478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B69C7-A702-45C4-913D-71E1B6AF4D13}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1520,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1547,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>41</v>
@@ -1577,13 +1579,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1595,17 +1597,17 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45437</v>
+        <v>45438</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>43</v>
@@ -1617,7 +1619,7 @@
         <v>49</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1635,13 +1637,13 @@
         <v>32</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1653,17 +1655,17 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45437</v>
+        <v>45438</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>45</v>
@@ -1675,7 +1677,7 @@
         <v>49</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1693,13 +1695,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1711,17 +1713,17 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45437</v>
+        <v>45438</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>47</v>
@@ -1733,7 +1735,7 @@
         <v>49</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1748,16 +1750,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1769,17 +1771,17 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45437</v>
+        <v>45438</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>43</v>
@@ -1791,7 +1793,7 @@
         <v>49</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1888,13 +1890,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1906,10 +1908,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -1933,13 +1935,13 @@
         <v>32</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1951,10 +1953,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -1978,13 +1980,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1996,10 +1998,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
@@ -2020,16 +2022,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -2041,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
@@ -2062,7 +2064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08C9849-CB54-465E-AADF-08DB0E1F7827}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
@@ -2112,7 +2114,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -2151,7 +2153,7 @@
         <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -2163,7 +2165,7 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
@@ -2190,13 +2192,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -2208,16 +2210,16 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P2" s="3">
         <v>4</v>
@@ -2226,13 +2228,13 @@
         <v>8</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U2" s="3">
         <v>6</v>
@@ -2241,7 +2243,7 @@
         <v>7</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>31</v>
@@ -2250,7 +2252,7 @@
         <v>26</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -2268,13 +2270,13 @@
         <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -2286,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>31</v>
@@ -2295,7 +2297,7 @@
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P3" s="3">
         <v>3</v>
@@ -2307,10 +2309,10 @@
         <v>34</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U3" s="3">
         <v>4</v>
@@ -2319,16 +2321,16 @@
         <v>5</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -2346,13 +2348,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2364,16 +2366,16 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -2385,10 +2387,10 @@
         <v>32</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U4" s="3">
         <v>5</v>
@@ -2397,16 +2399,16 @@
         <v>6</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -2421,16 +2423,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -2442,16 +2444,16 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>
@@ -2463,10 +2465,10 @@
         <v>39</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U5" s="3">
         <v>5</v>
@@ -2475,16 +2477,16 @@
         <v>6</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2509,26 +2511,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45285</v>
+        <v>45286</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45437</v>
+        <v>45438</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9398EFF-41E8-4F77-BCAA-FDE81BD74F66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F9529E-52CB-4923-8EE4-89DCC873B981}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPA011" sheetId="7" r:id="rId1"/>
@@ -1279,9 +1279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD295A4-7888-4573-887A-A63AAC48719B}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1370,7 +1368,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>24</v>
@@ -1424,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>32</v>
@@ -1478,7 +1476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B69C7-A702-45C4-913D-71E1B6AF4D13}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
@@ -1607,7 +1605,7 @@
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45438</v>
+        <v>45447</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>43</v>
@@ -1665,7 +1663,7 @@
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45438</v>
+        <v>45447</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>45</v>
@@ -1723,7 +1721,7 @@
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45438</v>
+        <v>45447</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>47</v>
@@ -1781,7 +1779,7 @@
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45438</v>
+        <v>45447</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>43</v>
@@ -2523,14 +2521,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45286</v>
+        <v>45295</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45438</v>
+        <v>45447</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F9529E-52CB-4923-8EE4-89DCC873B981}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BECD93E-B2C1-4979-86C2-B71C12E04B7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPA011" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="76">
   <si>
     <t>fileName</t>
   </si>
@@ -112,27 +112,18 @@
     <t>45,62</t>
   </si>
   <si>
-    <t>Soft annealing</t>
-  </si>
-  <si>
     <t>dxf-testing.dxf</t>
   </si>
   <si>
     <t>dwg-testing.dwg</t>
   </si>
   <si>
-    <t>EN AW-6082 / AlMgSi1</t>
-  </si>
-  <si>
     <t>Grinding</t>
   </si>
   <si>
     <t>44,61</t>
   </si>
   <si>
-    <t>Plasma nitriding</t>
-  </si>
-  <si>
     <t>stp-testing.stp</t>
   </si>
   <si>
@@ -211,42 +202,18 @@
     <t>No</t>
   </si>
   <si>
-    <t>X2CrNiMo17</t>
-  </si>
-  <si>
-    <t>Copper</t>
-  </si>
-  <si>
-    <t>CuSn8</t>
-  </si>
-  <si>
-    <t>Stainless steel</t>
-  </si>
-  <si>
-    <t>Aluminum</t>
-  </si>
-  <si>
-    <t>X5CrNi18</t>
-  </si>
-  <si>
     <t>EPDM 65 Premium</t>
   </si>
   <si>
     <t>Rubber</t>
   </si>
   <si>
-    <t>EN AW-6060 / AlMgSi</t>
-  </si>
-  <si>
     <t>materialGroupChanged</t>
   </si>
   <si>
     <t>Sandblasting</t>
   </si>
   <si>
-    <t>AlMg3-Blech</t>
-  </si>
-  <si>
     <t>115,80</t>
   </si>
   <si>
@@ -272,6 +239,21 @@
   </si>
   <si>
     <t>thuyautomation0@gmail.com</t>
+  </si>
+  <si>
+    <t>Silikon 60 (rot / farblos)</t>
+  </si>
+  <si>
+    <t>PU 80 (ocker)</t>
+  </si>
+  <si>
+    <t>Moosgummi EPDM (schwarz)</t>
+  </si>
+  <si>
+    <t>SBR 40 (grau)</t>
+  </si>
+  <si>
+    <t>Weich-PVC</t>
   </si>
 </sst>
 </file>
@@ -680,7 +662,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -697,7 +679,7 @@
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.140625" customWidth="1"/>
     <col min="16" max="16" width="40.28515625" bestFit="1" customWidth="1"/>
@@ -721,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -748,18 +730,18 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -769,16 +751,16 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -790,27 +772,27 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -820,16 +802,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I3" s="3">
         <v>4</v>
@@ -841,7 +823,7 @@
         <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>72</v>
@@ -850,18 +832,18 @@
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -871,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I4" s="3">
         <v>4</v>
@@ -892,27 +874,27 @@
         <v>6</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -922,16 +904,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -943,22 +925,22 @@
         <v>6</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -972,7 +954,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -989,7 +971,7 @@
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" customWidth="1"/>
     <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.140625" customWidth="1"/>
     <col min="16" max="16" width="38.28515625" bestFit="1" customWidth="1"/>
@@ -1014,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1041,21 +1023,21 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1068,13 +1050,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1086,30 +1068,30 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1119,16 +1101,16 @@
         <v>500</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1140,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>72</v>
@@ -1149,21 +1131,21 @@
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1173,16 +1155,16 @@
         <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1194,30 +1176,30 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="3">
         <v>60</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1227,46 +1209,46 @@
         <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="3">
         <v>60</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1279,7 +1261,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD295A4-7888-4573-887A-A63AAC48719B}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1320,7 +1304,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1347,21 +1331,21 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1374,13 +1358,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1392,30 +1376,30 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1425,16 +1409,16 @@
         <v>100</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I3" s="3">
         <v>4</v>
@@ -1446,25 +1430,25 @@
         <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1477,7 +1461,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1520,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1547,24 +1531,24 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1577,13 +1561,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1595,10 +1579,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -1608,21 +1592,21 @@
         <v>45447</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1632,16 +1616,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1653,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>72</v>
@@ -1666,21 +1650,21 @@
         <v>45447</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="S3" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1690,16 +1674,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1711,10 +1695,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
@@ -1724,21 +1708,21 @@
         <v>45447</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1748,31 +1732,31 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
@@ -1782,16 +1766,16 @@
         <v>45447</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1804,7 +1788,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M2" sqref="M2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1821,7 +1805,7 @@
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" customWidth="1"/>
     <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1843,7 +1827,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1875,7 +1859,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1888,13 +1872,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1906,10 +1890,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -1920,7 +1904,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1930,16 +1914,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1951,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>72</v>
@@ -1960,12 +1944,12 @@
         <v>23</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1975,16 +1959,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1996,21 +1980,21 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -2020,37 +2004,37 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2062,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08C9849-CB54-465E-AADF-08DB0E1F7827}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2079,7 +2063,7 @@
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.5703125" customWidth="1"/>
     <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.42578125" customWidth="1"/>
@@ -2112,7 +2096,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -2151,7 +2135,7 @@
         <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -2163,7 +2147,7 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
@@ -2177,7 +2161,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -2187,16 +2171,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -2208,16 +2192,16 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="P2" s="3">
         <v>4</v>
@@ -2226,13 +2210,13 @@
         <v>8</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="U2" s="3">
         <v>6</v>
@@ -2241,21 +2225,21 @@
         <v>7</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -2265,16 +2249,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -2286,16 +2270,16 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P3" s="3">
         <v>3</v>
@@ -2304,13 +2288,13 @@
         <v>1</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U3" s="3">
         <v>4</v>
@@ -2319,21 +2303,21 @@
         <v>5</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -2343,16 +2327,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2364,16 +2348,16 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -2382,13 +2366,13 @@
         <v>2</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="U4" s="3">
         <v>5</v>
@@ -2397,21 +2381,21 @@
         <v>6</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -2421,37 +2405,37 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>
@@ -2460,13 +2444,13 @@
         <v>1</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="U5" s="3">
         <v>5</v>
@@ -2475,16 +2459,16 @@
         <v>6</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2509,13 +2493,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F9529E-52CB-4923-8EE4-89DCC873B981}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECAD105-24D6-4335-9E11-953576A3954C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPA011" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="83">
   <si>
     <t>fileName</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>thuyautomation0@gmail.com</t>
+  </si>
+  <si>
+    <t>shippingCost</t>
   </si>
 </sst>
 </file>
@@ -969,10 +972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBA0BF0-0221-405C-9926-91F4A4D5B9A2}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -995,9 +998,10 @@
     <col min="16" max="16" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,8 +1056,11 @@
       <c r="R1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -1106,8 +1113,11 @@
       <c r="R2" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1160,8 +1170,11 @@
       <c r="R3" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -1214,8 +1227,11 @@
       <c r="R4" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1267,6 +1283,9 @@
       </c>
       <c r="R5" s="4" t="s">
         <v>49</v>
+      </c>
+      <c r="S5" s="3">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1279,7 +1298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD295A4-7888-4573-887A-A63AAC48719B}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1605,7 +1624,7 @@
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45447</v>
+        <v>45471</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>43</v>
@@ -1663,7 +1682,7 @@
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45447</v>
+        <v>45471</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>45</v>
@@ -1721,7 +1740,7 @@
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45447</v>
+        <v>45471</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>47</v>
@@ -1779,7 +1798,7 @@
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45447</v>
+        <v>45471</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>43</v>
@@ -2521,14 +2540,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45295</v>
+        <v>45319</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45447</v>
+        <v>45471</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECAD105-24D6-4335-9E11-953576A3954C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA2DC18-1C75-4957-9F64-FF382321CB1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="93">
   <si>
     <t>fileName</t>
   </si>
@@ -275,6 +275,36 @@
   </si>
   <si>
     <t>shippingCost</t>
+  </si>
+  <si>
+    <t>Verchromen</t>
+  </si>
+  <si>
+    <t>EN AW-5754 / AlMg3</t>
+  </si>
+  <si>
+    <t>V2A-1D / X5CrNi18</t>
+  </si>
+  <si>
+    <t>Edelstahl</t>
+  </si>
+  <si>
+    <t>EN AW-5005 / AlMg1-ELO</t>
+  </si>
+  <si>
+    <t>Stahl (unlegiert)</t>
+  </si>
+  <si>
+    <t>DC01</t>
+  </si>
+  <si>
+    <t>Plasmanitrieren</t>
+  </si>
+  <si>
+    <t>Nitrocarburieren</t>
+  </si>
+  <si>
+    <t>Chromatieren</t>
   </si>
 </sst>
 </file>
@@ -683,7 +713,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="L2" sqref="L2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -700,7 +730,7 @@
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" customWidth="1"/>
     <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.140625" customWidth="1"/>
     <col min="16" max="16" width="40.28515625" bestFit="1" customWidth="1"/>
@@ -772,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>60</v>
@@ -793,10 +823,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -823,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>60</v>
@@ -847,7 +877,7 @@
         <v>65</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -874,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>60</v>
@@ -895,10 +925,10 @@
         <v>6</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
@@ -925,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>60</v>
@@ -949,7 +979,7 @@
         <v>65</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
@@ -974,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBA0BF0-0221-405C-9926-91F4A4D5B9A2}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -991,7 +1021,7 @@
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.140625" customWidth="1"/>
@@ -1072,7 +1102,7 @@
         <v>50</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>60</v>
@@ -1093,10 +1123,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -1129,7 +1159,7 @@
         <v>500</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>60</v>
@@ -1153,7 +1183,7 @@
         <v>65</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -1186,7 +1216,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>60</v>
@@ -1207,10 +1237,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
@@ -1243,7 +1273,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>60</v>
@@ -1267,7 +1297,7 @@
         <v>65</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
@@ -1624,7 +1654,7 @@
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>43</v>
@@ -1682,7 +1712,7 @@
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>45</v>
@@ -1740,7 +1770,7 @@
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>47</v>
@@ -1798,7 +1828,7 @@
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>43</v>
@@ -2540,14 +2570,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45319</v>
+        <v>45323</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45471</v>
+        <v>45474</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA2DC18-1C75-4957-9F64-FF382321CB1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F3DA27-0AC3-42E0-BB59-5B7418D8D113}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPA011" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="87">
   <si>
     <t>fileName</t>
   </si>
@@ -115,12 +115,6 @@
     <t>Soft annealing</t>
   </si>
   <si>
-    <t>dxf-testing.dxf</t>
-  </si>
-  <si>
-    <t>dwg-testing.dwg</t>
-  </si>
-  <si>
     <t>EN AW-6082 / AlMgSi1</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>44,61</t>
   </si>
   <si>
-    <t>Plasma nitriding</t>
-  </si>
-  <si>
     <t>stp-testing.stp</t>
   </si>
   <si>
@@ -145,9 +136,6 @@
     <t>49,65</t>
   </si>
   <si>
-    <t>Phosphating</t>
-  </si>
-  <si>
     <t>packagingAndShippingComments</t>
   </si>
   <si>
@@ -214,12 +202,6 @@
     <t>X2CrNiMo17</t>
   </si>
   <si>
-    <t>Copper</t>
-  </si>
-  <si>
-    <t>CuSn8</t>
-  </si>
-  <si>
     <t>Stainless steel</t>
   </si>
   <si>
@@ -229,12 +211,6 @@
     <t>X5CrNi18</t>
   </si>
   <si>
-    <t>EPDM 65 Premium</t>
-  </si>
-  <si>
-    <t>Rubber</t>
-  </si>
-  <si>
     <t>EN AW-6060 / AlMgSi</t>
   </si>
   <si>
@@ -244,9 +220,6 @@
     <t>Sandblasting</t>
   </si>
   <si>
-    <t>AlMg3-Blech</t>
-  </si>
-  <si>
     <t>115,80</t>
   </si>
   <si>
@@ -305,6 +278,15 @@
   </si>
   <si>
     <t>Chromatieren</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>stp-testing 2.stp</t>
+  </si>
+  <si>
+    <t>stp-testing 3.stp</t>
   </si>
 </sst>
 </file>
@@ -713,7 +695,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M5"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -754,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -781,18 +763,18 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -802,16 +784,16 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -823,27 +805,27 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -853,16 +835,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I3" s="3">
         <v>4</v>
@@ -874,27 +856,27 @@
         <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -904,16 +886,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I4" s="3">
         <v>4</v>
@@ -925,27 +907,27 @@
         <v>6</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -955,16 +937,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -976,22 +958,22 @@
         <v>6</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1004,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBA0BF0-0221-405C-9926-91F4A4D5B9A2}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1048,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1075,24 +1057,24 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1102,16 +1084,16 @@
         <v>50</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1123,25 +1105,25 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S2" s="3">
         <v>15</v>
@@ -1149,7 +1131,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1159,16 +1141,16 @@
         <v>500</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1180,25 +1162,25 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S3" s="3">
         <v>6</v>
@@ -1206,7 +1188,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1216,16 +1198,16 @@
         <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1237,25 +1219,25 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="3">
         <v>60</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S4" s="3">
         <v>7</v>
@@ -1263,7 +1245,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1273,16 +1255,16 @@
         <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1294,25 +1276,25 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="3">
         <v>60</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S5" s="3">
         <v>15</v>
@@ -1328,7 +1310,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD295A4-7888-4573-887A-A63AAC48719B}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1369,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1396,21 +1380,21 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1420,16 +1404,16 @@
         <v>300</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1441,30 +1425,30 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1474,16 +1458,16 @@
         <v>100</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I3" s="3">
         <v>4</v>
@@ -1495,25 +1479,25 @@
         <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1525,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B69C7-A702-45C4-913D-71E1B6AF4D13}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1569,7 +1553,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1596,24 +1580,24 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1623,16 +1607,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1644,10 +1628,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -1657,21 +1641,21 @@
         <v>45474</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1681,16 +1665,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1702,10 +1686,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -1715,21 +1699,21 @@
         <v>45474</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="S3" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1739,16 +1723,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1760,10 +1744,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
@@ -1773,21 +1757,21 @@
         <v>45474</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1797,16 +1781,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1818,10 +1802,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
@@ -1831,16 +1815,16 @@
         <v>45474</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1853,7 +1837,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1892,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1924,7 +1908,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1934,16 +1918,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1955,10 +1939,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -1969,7 +1953,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1979,16 +1963,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -2000,21 +1984,21 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -2024,16 +2008,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2045,21 +2029,21 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -2069,16 +2053,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -2090,16 +2074,16 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2111,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08C9849-CB54-465E-AADF-08DB0E1F7827}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2161,7 +2145,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -2200,7 +2184,7 @@
         <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -2212,7 +2196,7 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
@@ -2226,7 +2210,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -2239,13 +2223,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -2257,16 +2241,16 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P2" s="3">
         <v>4</v>
@@ -2275,13 +2259,13 @@
         <v>8</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U2" s="3">
         <v>6</v>
@@ -2290,21 +2274,21 @@
         <v>7</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -2314,16 +2298,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -2335,16 +2319,16 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P3" s="3">
         <v>3</v>
@@ -2353,13 +2337,13 @@
         <v>1</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="U3" s="3">
         <v>4</v>
@@ -2368,21 +2352,21 @@
         <v>5</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -2395,13 +2379,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2413,16 +2397,16 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -2431,13 +2415,13 @@
         <v>2</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="U4" s="3">
         <v>5</v>
@@ -2446,21 +2430,21 @@
         <v>6</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -2470,37 +2454,37 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>
@@ -2509,13 +2493,13 @@
         <v>1</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="U5" s="3">
         <v>5</v>
@@ -2524,16 +2508,16 @@
         <v>6</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2558,13 +2542,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECAD105-24D6-4335-9E11-953576A3954C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F534C9-F0A7-46DC-B7E5-E7A991905106}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPA011" sheetId="7" r:id="rId1"/>
@@ -160,21 +160,12 @@
     <t>STANDARD</t>
   </si>
   <si>
-    <t>Standard shipping</t>
-  </si>
-  <si>
     <t>ECONOMY</t>
   </si>
   <si>
-    <t>Pickup at factory</t>
-  </si>
-  <si>
     <t>FAST</t>
   </si>
   <si>
-    <t>Special packaging / via freight forwarding</t>
-  </si>
-  <si>
     <t>comments shipping</t>
   </si>
   <si>
@@ -275,6 +266,15 @@
   </si>
   <si>
     <t>shippingCost</t>
+  </si>
+  <si>
+    <t>Freight delivery / sepcial packaging (extra costs)</t>
+  </si>
+  <si>
+    <t>Package delivery (extra costs)</t>
+  </si>
+  <si>
+    <t>Pick-up at factory (no costs)</t>
   </si>
 </sst>
 </file>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4639641D-1D4F-4B71-AC19-D76CD20CBA7F}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -724,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -775,13 +775,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -793,10 +793,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -805,10 +805,10 @@
         <v>43</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -826,13 +826,13 @@
         <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I3" s="3">
         <v>4</v>
@@ -844,22 +844,22 @@
         <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -877,13 +877,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I4" s="3">
         <v>4</v>
@@ -895,22 +895,22 @@
         <v>6</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -925,16 +925,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -946,10 +946,10 @@
         <v>6</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
@@ -958,10 +958,10 @@
         <v>43</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBA0BF0-0221-405C-9926-91F4A4D5B9A2}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -1018,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1057,7 +1057,7 @@
         <v>40</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1075,13 +1075,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1093,10 +1093,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -1105,13 +1105,13 @@
         <v>43</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S2" s="3">
         <v>15</v>
@@ -1132,13 +1132,13 @@
         <v>32</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1150,25 +1150,25 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S3" s="3">
         <v>6</v>
@@ -1189,13 +1189,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1207,25 +1207,25 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="3">
         <v>60</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S4" s="3">
         <v>7</v>
@@ -1243,16 +1243,16 @@
         <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1264,10 +1264,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
@@ -1276,13 +1276,13 @@
         <v>43</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="3">
         <v>60</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S5" s="3">
         <v>15</v>
@@ -1339,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1393,13 +1393,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1411,10 +1411,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -1423,13 +1423,13 @@
         <v>43</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1447,13 +1447,13 @@
         <v>32</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I3" s="3">
         <v>4</v>
@@ -1465,25 +1465,25 @@
         <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1539,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1566,7 +1566,7 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>41</v>
@@ -1578,7 +1578,7 @@
         <v>40</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1596,13 +1596,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1614,29 +1614,29 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45471</v>
+        <v>45476</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1654,13 +1654,13 @@
         <v>32</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1672,29 +1672,29 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45471</v>
+        <v>45476</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="S3" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1712,13 +1712,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1730,29 +1730,29 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45471</v>
+        <v>45476</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1767,16 +1767,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1788,29 +1788,29 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45471</v>
+        <v>45476</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1862,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1907,13 +1907,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1925,10 +1925,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -1952,13 +1952,13 @@
         <v>32</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1970,10 +1970,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -1997,13 +1997,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2015,10 +2015,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>26</v>
@@ -2039,16 +2039,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -2060,10 +2060,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>26</v>
@@ -2131,7 +2131,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -2170,7 +2170,7 @@
         <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -2182,7 +2182,7 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
@@ -2209,13 +2209,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -2227,16 +2227,16 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P2" s="3">
         <v>4</v>
@@ -2245,13 +2245,13 @@
         <v>8</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="U2" s="3">
         <v>6</v>
@@ -2260,7 +2260,7 @@
         <v>7</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>31</v>
@@ -2269,7 +2269,7 @@
         <v>26</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -2287,13 +2287,13 @@
         <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -2305,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>31</v>
@@ -2314,7 +2314,7 @@
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P3" s="3">
         <v>3</v>
@@ -2326,10 +2326,10 @@
         <v>34</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U3" s="3">
         <v>4</v>
@@ -2338,16 +2338,16 @@
         <v>5</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -2365,13 +2365,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2383,16 +2383,16 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -2404,10 +2404,10 @@
         <v>32</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="U4" s="3">
         <v>5</v>
@@ -2416,16 +2416,16 @@
         <v>6</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -2440,16 +2440,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -2461,16 +2461,16 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>39</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="U5" s="3">
         <v>5</v>
@@ -2494,16 +2494,16 @@
         <v>6</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2528,26 +2528,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45319</v>
+        <v>45325</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45471</v>
+        <v>45476</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F3DA27-0AC3-42E0-BB59-5B7418D8D113}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DC813E-82F9-4F87-B417-1F684D94AA95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPA011" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="84">
   <si>
     <t>fileName</t>
   </si>
@@ -100,9 +100,6 @@
     <t>false</t>
   </si>
   <si>
-    <t>Painting</t>
-  </si>
-  <si>
     <t>All layers</t>
   </si>
   <si>
@@ -112,18 +109,21 @@
     <t>45,62</t>
   </si>
   <si>
-    <t>Soft annealing</t>
+    <t>dxf-testing.dxf</t>
+  </si>
+  <si>
+    <t>dwg-testing.dwg</t>
   </si>
   <si>
     <t>EN AW-6082 / AlMgSi1</t>
   </si>
   <si>
-    <t>Grinding</t>
-  </si>
-  <si>
     <t>44,61</t>
   </si>
   <si>
+    <t>Plasma nitriding</t>
+  </si>
+  <si>
     <t>stp-testing.stp</t>
   </si>
   <si>
@@ -136,6 +136,9 @@
     <t>49,65</t>
   </si>
   <si>
+    <t>Phosphating</t>
+  </si>
+  <si>
     <t>packagingAndShippingComments</t>
   </si>
   <si>
@@ -148,145 +151,133 @@
     <t>STANDARD</t>
   </si>
   <si>
+    <t>ECONOMY</t>
+  </si>
+  <si>
+    <t>FAST</t>
+  </si>
+  <si>
+    <t>comments shipping</t>
+  </si>
+  <si>
+    <t>customerEmail</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Add Months</t>
+  </si>
+  <si>
+    <t>Date M added</t>
+  </si>
+  <si>
+    <t>deliveryDate</t>
+  </si>
+  <si>
+    <t>laserMarking</t>
+  </si>
+  <si>
+    <t>laserMarkingChanged</t>
+  </si>
+  <si>
+    <t>One-sided</t>
+  </si>
+  <si>
+    <t>Trovalize</t>
+  </si>
+  <si>
+    <t>Two-sided</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>X2CrNiMo17</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>CuSn8</t>
+  </si>
+  <si>
+    <t>Stainless steel</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>X5CrNi18</t>
+  </si>
+  <si>
+    <t>EPDM 65 Premium</t>
+  </si>
+  <si>
+    <t>Rubber</t>
+  </si>
+  <si>
+    <t>materialGroupChanged</t>
+  </si>
+  <si>
+    <t>AlMg3-Blech</t>
+  </si>
+  <si>
+    <t>115,80</t>
+  </si>
+  <si>
+    <t>33,18</t>
+  </si>
+  <si>
+    <t>227,58</t>
+  </si>
+  <si>
+    <t>110,46</t>
+  </si>
+  <si>
+    <t>56,85</t>
+  </si>
+  <si>
+    <t>50,49</t>
+  </si>
+  <si>
+    <t>221,76</t>
+  </si>
+  <si>
+    <t>87,56</t>
+  </si>
+  <si>
+    <t>thuyautomation0@gmail.com</t>
+  </si>
+  <si>
+    <t>shippingCost</t>
+  </si>
+  <si>
+    <t>Plasmanitrieren</t>
+  </si>
+  <si>
+    <t>Verchromen</t>
+  </si>
+  <si>
+    <t>Nitrocarburieren</t>
+  </si>
+  <si>
+    <t>Vernickeln</t>
+  </si>
+  <si>
+    <t>stp-testing 2.stp</t>
+  </si>
+  <si>
+    <t>stp-testing 3.stp</t>
+  </si>
+  <si>
     <t>Standard shipping</t>
   </si>
   <si>
-    <t>ECONOMY</t>
-  </si>
-  <si>
     <t>Pickup at factory</t>
   </si>
   <si>
-    <t>FAST</t>
-  </si>
-  <si>
     <t>Special packaging / via freight forwarding</t>
-  </si>
-  <si>
-    <t>comments shipping</t>
-  </si>
-  <si>
-    <t>customerEmail</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Add Months</t>
-  </si>
-  <si>
-    <t>Date M added</t>
-  </si>
-  <si>
-    <t>deliveryDate</t>
-  </si>
-  <si>
-    <t>laserMarking</t>
-  </si>
-  <si>
-    <t>laserMarkingChanged</t>
-  </si>
-  <si>
-    <t>One-sided</t>
-  </si>
-  <si>
-    <t>Trovalize</t>
-  </si>
-  <si>
-    <t>Two-sided</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>X2CrNiMo17</t>
-  </si>
-  <si>
-    <t>Stainless steel</t>
-  </si>
-  <si>
-    <t>Aluminum</t>
-  </si>
-  <si>
-    <t>X5CrNi18</t>
-  </si>
-  <si>
-    <t>EN AW-6060 / AlMgSi</t>
-  </si>
-  <si>
-    <t>materialGroupChanged</t>
-  </si>
-  <si>
-    <t>Sandblasting</t>
-  </si>
-  <si>
-    <t>115,80</t>
-  </si>
-  <si>
-    <t>33,18</t>
-  </si>
-  <si>
-    <t>227,58</t>
-  </si>
-  <si>
-    <t>110,46</t>
-  </si>
-  <si>
-    <t>56,85</t>
-  </si>
-  <si>
-    <t>50,49</t>
-  </si>
-  <si>
-    <t>221,76</t>
-  </si>
-  <si>
-    <t>87,56</t>
-  </si>
-  <si>
-    <t>thuyautomation0@gmail.com</t>
-  </si>
-  <si>
-    <t>shippingCost</t>
-  </si>
-  <si>
-    <t>Verchromen</t>
-  </si>
-  <si>
-    <t>EN AW-5754 / AlMg3</t>
-  </si>
-  <si>
-    <t>V2A-1D / X5CrNi18</t>
-  </si>
-  <si>
-    <t>Edelstahl</t>
-  </si>
-  <si>
-    <t>EN AW-5005 / AlMg1-ELO</t>
-  </si>
-  <si>
-    <t>Stahl (unlegiert)</t>
-  </si>
-  <si>
-    <t>DC01</t>
-  </si>
-  <si>
-    <t>Plasmanitrieren</t>
-  </si>
-  <si>
-    <t>Nitrocarburieren</t>
-  </si>
-  <si>
-    <t>Chromatieren</t>
-  </si>
-  <si>
-    <t>Aluminium</t>
-  </si>
-  <si>
-    <t>stp-testing 2.stp</t>
-  </si>
-  <si>
-    <t>stp-testing 3.stp</t>
   </si>
 </sst>
 </file>
@@ -694,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4639641D-1D4F-4B71-AC19-D76CD20CBA7F}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -712,7 +703,7 @@
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.140625" customWidth="1"/>
     <col min="16" max="16" width="40.28515625" bestFit="1" customWidth="1"/>
@@ -736,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -763,18 +754,18 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -784,16 +775,16 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -805,27 +796,27 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -835,16 +826,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I3" s="3">
         <v>4</v>
@@ -856,10 +847,10 @@
         <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -868,10 +859,10 @@
         <v>41</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -886,16 +877,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I4" s="3">
         <v>4</v>
@@ -907,22 +898,22 @@
         <v>6</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -937,16 +928,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -958,22 +949,22 @@
         <v>6</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +994,7 @@
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.140625" customWidth="1"/>
@@ -1030,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1057,24 +1048,24 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1084,16 +1075,16 @@
         <v>50</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1105,25 +1096,25 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S2" s="3">
         <v>15</v>
@@ -1131,7 +1122,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1141,16 +1132,16 @@
         <v>500</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1162,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -1174,13 +1165,13 @@
         <v>41</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S3" s="3">
         <v>6</v>
@@ -1198,46 +1189,46 @@
         <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="3">
         <v>60</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S4" s="3">
         <v>7</v>
@@ -1255,46 +1246,46 @@
         <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="O5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="3">
         <v>60</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S5" s="3">
         <v>15</v>
@@ -1310,7 +1301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD295A4-7888-4573-887A-A63AAC48719B}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
@@ -1353,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1380,21 +1371,21 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1404,16 +1395,16 @@
         <v>300</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1425,30 +1416,30 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1458,16 +1449,16 @@
         <v>100</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I3" s="3">
         <v>4</v>
@@ -1479,10 +1470,10 @@
         <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -1491,13 +1482,13 @@
         <v>41</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +1501,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1553,7 +1544,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1580,24 +1571,24 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="S1" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1607,16 +1598,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1628,34 +1619,34 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1665,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1686,29 +1677,29 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1723,50 +1714,50 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="S4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1781,50 +1772,50 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1837,7 +1828,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1876,7 +1867,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1908,7 +1899,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1918,16 +1909,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -1939,21 +1930,21 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1963,16 +1954,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1984,16 +1975,16 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2008,34 +1999,34 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>33</v>
@@ -2053,34 +2044,34 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>35</v>
@@ -2096,7 +2087,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2145,7 +2136,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -2184,7 +2175,7 @@
         <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -2196,7 +2187,7 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
@@ -2210,7 +2201,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -2220,16 +2211,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3">
         <v>4</v>
@@ -2244,13 +2235,13 @@
         <v>58</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P2" s="3">
         <v>4</v>
@@ -2259,13 +2250,13 @@
         <v>8</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U2" s="3">
         <v>6</v>
@@ -2274,21 +2265,21 @@
         <v>7</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -2298,16 +2289,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -2328,7 +2319,7 @@
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P3" s="3">
         <v>3</v>
@@ -2337,13 +2328,13 @@
         <v>1</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U3" s="3">
         <v>4</v>
@@ -2352,16 +2343,16 @@
         <v>5</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -2376,16 +2367,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2403,10 +2394,10 @@
         <v>60</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -2415,13 +2406,13 @@
         <v>2</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U4" s="3">
         <v>5</v>
@@ -2430,16 +2421,16 @@
         <v>6</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -2454,16 +2445,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -2478,13 +2469,13 @@
         <v>59</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>
@@ -2493,13 +2484,13 @@
         <v>1</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U5" s="3">
         <v>5</v>
@@ -2508,16 +2499,16 @@
         <v>6</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2542,26 +2533,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45323</v>
+        <v>45325</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DC813E-82F9-4F87-B417-1F684D94AA95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE14BE52-A4C0-42F5-8738-0F69F212D652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPA011" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="83">
   <si>
     <t>fileName</t>
   </si>
@@ -220,9 +220,6 @@
     <t>materialGroupChanged</t>
   </si>
   <si>
-    <t>AlMg3-Blech</t>
-  </si>
-  <si>
     <t>115,80</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t>shippingCost</t>
   </si>
   <si>
-    <t>Plasmanitrieren</t>
-  </si>
-  <si>
     <t>Verchromen</t>
   </si>
   <si>
@@ -271,13 +265,16 @@
     <t>stp-testing 3.stp</t>
   </si>
   <si>
-    <t>Standard shipping</t>
-  </si>
-  <si>
-    <t>Pickup at factory</t>
-  </si>
-  <si>
-    <t>Special packaging / via freight forwarding</t>
+    <t>Package delivery (extra costs)</t>
+  </si>
+  <si>
+    <t>Pick-up at factory (no costs)</t>
+  </si>
+  <si>
+    <t>Freight delivery / sepcial packaging (extra costs)</t>
+  </si>
+  <si>
+    <t>EN AW-5754 / AlMg3</t>
   </si>
 </sst>
 </file>
@@ -685,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4639641D-1D4F-4B71-AC19-D76CD20CBA7F}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -775,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>54</v>
@@ -808,7 +805,7 @@
         <v>40</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>43</v>
@@ -826,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>54</v>
@@ -850,7 +847,7 @@
         <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -859,7 +856,7 @@
         <v>41</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>43</v>
@@ -877,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>54</v>
@@ -910,7 +907,7 @@
         <v>42</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>43</v>
@@ -928,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>54</v>
@@ -961,7 +958,7 @@
         <v>40</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>43</v>
@@ -977,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBA0BF0-0221-405C-9926-91F4A4D5B9A2}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1060,22 +1057,22 @@
         <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>54</v>
@@ -1108,7 +1105,7 @@
         <v>40</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
@@ -1122,17 +1119,17 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>54</v>
@@ -1156,7 +1153,7 @@
         <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -1165,7 +1162,7 @@
         <v>41</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
@@ -1186,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>54</v>
@@ -1222,7 +1219,7 @@
         <v>42</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="3">
         <v>60</v>
@@ -1243,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>54</v>
@@ -1279,7 +1276,7 @@
         <v>40</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="3">
         <v>60</v>
@@ -1385,7 +1382,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1395,7 +1392,7 @@
         <v>300</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>54</v>
@@ -1428,7 +1425,7 @@
         <v>40</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
@@ -1439,7 +1436,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1449,7 +1446,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>54</v>
@@ -1482,7 +1479,7 @@
         <v>41</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
@@ -1588,7 +1585,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1598,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>54</v>
@@ -1629,24 +1626,24 @@
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1656,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>54</v>
@@ -1680,26 +1677,26 @@
         <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1714,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>54</v>
@@ -1745,19 +1742,19 @@
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>43</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1772,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>54</v>
@@ -1803,19 +1800,19 @@
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>43</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1899,7 +1896,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1909,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>54</v>
@@ -1944,7 +1941,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1954,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>54</v>
@@ -1978,7 +1975,7 @@
         <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -1999,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>54</v>
@@ -2044,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>54</v>
@@ -2201,7 +2198,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -2211,7 +2208,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>54</v>
@@ -2241,7 +2238,7 @@
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P2" s="3">
         <v>4</v>
@@ -2250,7 +2247,7 @@
         <v>8</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>54</v>
@@ -2274,12 +2271,12 @@
         <v>25</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -2289,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>54</v>
@@ -2319,7 +2316,7 @@
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P3" s="3">
         <v>3</v>
@@ -2352,7 +2349,7 @@
         <v>25</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -2367,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>54</v>
@@ -2397,7 +2394,7 @@
         <v>25</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -2406,7 +2403,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>54</v>
@@ -2430,7 +2427,7 @@
         <v>23</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -2445,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>54</v>
@@ -2475,7 +2472,7 @@
         <v>25</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>
@@ -2508,7 +2505,7 @@
         <v>25</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2545,14 +2542,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45325</v>
+        <v>45327</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45476</v>
+        <v>45478</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F534C9-F0A7-46DC-B7E5-E7A991905106}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5693015C-AAFF-4474-8696-46F9216305B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPA011" sheetId="7" r:id="rId1"/>
     <sheet name="FPA012-013-015-017" sheetId="8" r:id="rId2"/>
     <sheet name="FPA014-016-020" sheetId="9" r:id="rId3"/>
     <sheet name="FPA018-019" sheetId="10" r:id="rId4"/>
-    <sheet name="BTMI010" sheetId="6" r:id="rId5"/>
-    <sheet name="BTMI016" sheetId="5" r:id="rId6"/>
-    <sheet name="Calculate" sheetId="11" r:id="rId7"/>
+    <sheet name="BTMI009" sheetId="12" r:id="rId5"/>
+    <sheet name="BTMI010" sheetId="6" r:id="rId6"/>
+    <sheet name="BTMI016" sheetId="5" r:id="rId7"/>
+    <sheet name="Calculate" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="86">
   <si>
     <t>fileName</t>
   </si>
@@ -275,6 +276,15 @@
   </si>
   <si>
     <t>Pick-up at factory (no costs)</t>
+  </si>
+  <si>
+    <t>codeManual</t>
+  </si>
+  <si>
+    <t>ipt-testing.ipt</t>
+  </si>
+  <si>
+    <t>ANALYZE_EXCEPTION</t>
   </si>
 </sst>
 </file>
@@ -682,7 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4639641D-1D4F-4B71-AC19-D76CD20CBA7F}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -1624,7 +1634,7 @@
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45476</v>
+        <v>45492</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>43</v>
@@ -1682,7 +1692,7 @@
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45476</v>
+        <v>45492</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>44</v>
@@ -1740,7 +1750,7 @@
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45476</v>
+        <v>45492</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>45</v>
@@ -1798,7 +1808,7 @@
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45476</v>
+        <v>45492</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>43</v>
@@ -1819,11 +1829,135 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8401F322-4C67-4D4D-8935-D9A3D2BEDFFE}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AAE34D-C5F5-4479-9641-59F1F5898040}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="N1" sqref="A1:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2077,7 +2211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08C9849-CB54-465E-AADF-08DB0E1F7827}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
@@ -2511,7 +2645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF88DBB-4BDA-40FD-915E-847BDAADE748}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2540,14 +2674,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45325</v>
+        <v>45341</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45476</v>
+        <v>45492</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5693015C-AAFF-4474-8696-46F9216305B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082B973D-6A9A-48F1-AD92-88F03AC4C2EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPA011" sheetId="7" r:id="rId1"/>
@@ -269,9 +269,6 @@
     <t>shippingCost</t>
   </si>
   <si>
-    <t>Freight delivery / sepcial packaging (extra costs)</t>
-  </si>
-  <si>
     <t>Package delivery (extra costs)</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>ANALYZE_EXCEPTION</t>
+  </si>
+  <si>
+    <t>Freight delivery / special packaging (extra costs)</t>
   </si>
 </sst>
 </file>
@@ -815,7 +815,7 @@
         <v>43</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>46</v>
@@ -866,7 +866,7 @@
         <v>44</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>46</v>
@@ -917,7 +917,7 @@
         <v>45</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>46</v>
@@ -968,7 +968,7 @@
         <v>43</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>46</v>
@@ -1115,7 +1115,7 @@
         <v>43</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
@@ -1172,7 +1172,7 @@
         <v>44</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
@@ -1229,7 +1229,7 @@
         <v>45</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="3">
         <v>60</v>
@@ -1286,7 +1286,7 @@
         <v>43</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="3">
         <v>60</v>
@@ -1433,7 +1433,7 @@
         <v>43</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="3">
         <v>60</v>
@@ -1487,7 +1487,7 @@
         <v>44</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="3">
         <v>60</v>
@@ -1505,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B69C7-A702-45C4-913D-71E1B6AF4D13}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1634,13 +1634,13 @@
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45492</v>
+        <v>45493</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>46</v>
@@ -1692,13 +1692,13 @@
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45492</v>
+        <v>45493</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>44</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>46</v>
@@ -1750,13 +1750,13 @@
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45492</v>
+        <v>45493</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>45</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>46</v>
@@ -1808,13 +1808,13 @@
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45492</v>
+        <v>45493</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>46</v>
@@ -1832,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8401F322-4C67-4D4D-8935-D9A3D2BEDFFE}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1899,12 +1899,12 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -1944,7 +1944,7 @@
         <v>26</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2674,14 +2674,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45492</v>
+        <v>45493</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
+++ b/Data/Sheet Metal Part/Order/Order Information (SMP).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Sheet Metal Part\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE14BE52-A4C0-42F5-8738-0F69F212D652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702C5739-577A-4CC3-91A5-46B6B9BD7B1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,10 +271,10 @@
     <t>Pick-up at factory (no costs)</t>
   </si>
   <si>
-    <t>Freight delivery / sepcial packaging (extra costs)</t>
-  </si>
-  <si>
     <t>EN AW-5754 / AlMg3</t>
+  </si>
+  <si>
+    <t>Freight delivery / special packaging (extra costs)</t>
   </si>
 </sst>
 </file>
@@ -847,7 +847,7 @@
         <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -907,7 +907,7 @@
         <v>42</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>43</v>
@@ -975,7 +975,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,7 +1153,7 @@
         <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -1219,7 +1219,7 @@
         <v>42</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="3">
         <v>60</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="O2" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45478</v>
+        <v>45493</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>40</v>
@@ -1677,14 +1677,14 @@
         <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45478</v>
+        <v>45493</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>41</v>
@@ -1742,13 +1742,13 @@
       </c>
       <c r="O4" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45478</v>
+        <v>45493</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>43</v>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="O5" s="4">
         <f ca="1">Calculate!$C$2</f>
-        <v>45478</v>
+        <v>45493</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>40</v>
@@ -1975,7 +1975,7 @@
         <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>23</v>
@@ -2542,14 +2542,14 @@
     <row r="2" spans="1:3">
       <c r="A2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45327</v>
+        <v>45342</v>
       </c>
       <c r="B2" s="8">
         <v>5</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">DATE(YEAR(A2),MONTH(A2)+B2,MIN(DAY(A2),DAY(DATE(YEAR(A2),MONTH(A2)+B2+1,0))))</f>
-        <v>45478</v>
+        <v>45493</v>
       </c>
     </row>
   </sheetData>
